--- a/Zaretskaya_Kolvitsa_section/Распределение видов разрез Колвица.xlsx
+++ b/Zaretskaya_Kolvitsa_section/Распределение видов разрез Колвица.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="17">
   <si>
     <t>Глубина</t>
   </si>
@@ -53,22 +53,19 @@
     <t>Серый слой без субфоссилий</t>
   </si>
   <si>
-    <t>Отложения с трубками полихет и отдельными моллюсками</t>
+    <t>Слои с повышенным содержанием железа, Отложения с трубками полихет и отдельными моллюсками</t>
   </si>
   <si>
     <t>Dipolydora quadrilobata (?); Macoma sp.</t>
   </si>
   <si>
-    <t>Отложения с многочисленными трубками полихет и периостраками моллюсков</t>
+    <t>Слои с повышенным содержанием железа, Отложения с многочисленными трубками полихет и периостраками моллюсков</t>
   </si>
   <si>
     <t>Galathowenia oculata; Portlandia arctica</t>
   </si>
   <si>
-    <t>Отложения с многочисленными трубками полихет; редкие периостракумы моллюсков</t>
-  </si>
-  <si>
-    <t>Слои с повышенным содержанием железа</t>
+    <t>Слои с повышенным содержанием железа, Отложения с многочисленными трубками полихет; редкие периостракумы моллюсков</t>
   </si>
   <si>
     <t>Слой мелких окатанных камней с богатым ожелезнением и трубками полихет</t>
@@ -78,6 +75,9 @@
   </si>
   <si>
     <t>Морена</t>
+  </si>
+  <si>
+    <t>трубки на камне и раковины</t>
   </si>
 </sst>
 </file>
@@ -1244,13 +1244,13 @@
   <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="8.90740740740741" defaultRowHeight="14.4" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="14.4444444444444" customWidth="1"/>
-    <col min="2" max="2" width="93.2222222222222" customWidth="1"/>
+    <col min="1" max="1" width="8.09259259259259" customWidth="1"/>
+    <col min="2" max="2" width="116.092592592593" customWidth="1"/>
     <col min="3" max="3" width="42" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1441,28 +1441,37 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:3">
       <c r="A18">
         <v>160</v>
       </c>
       <c r="B18" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
+        <v>8</v>
+      </c>
+      <c r="C18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19">
         <v>170</v>
       </c>
       <c r="B19" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
+        <v>8</v>
+      </c>
+      <c r="C19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
       <c r="A20">
         <v>180</v>
       </c>
       <c r="B20" t="s">
-        <v>13</v>
+        <v>8</v>
+      </c>
+      <c r="C20" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1492,20 +1501,26 @@
         <v>210</v>
       </c>
       <c r="B23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" t="s">
         <v>14</v>
       </c>
-      <c r="C23" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1">
+    </row>
+    <row r="24" spans="1:3">
       <c r="A24">
         <v>220</v>
       </c>
-    </row>
-    <row r="25" spans="1:1">
+      <c r="C24" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
       <c r="A25">
         <v>230</v>
+      </c>
+      <c r="C25" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -1513,10 +1528,10 @@
         <v>240</v>
       </c>
       <c r="B26" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26" t="s">
         <v>16</v>
-      </c>
-      <c r="C26" t="s">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
